--- a/pred_ohlcv/54_21/2020-01-14 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 BCH ohlcv.xlsx
@@ -1718,7 +1718,7 @@
         <v>-188.2532852299998</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-188.4162852299999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-192.0253852299999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-194.1519852299999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-193.7779852299999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-193.7779852299999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-192.4372852299999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-199.1016852299999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-199.1016852299999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-199.1907852299999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-199.1907852299999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-201.9693852299999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-201.9693852299999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-211.8203852299999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-211.8203852299999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-212.2270852299999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-102.6117852299999</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-115.8524852299999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-115.8524852299999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-120.8524852299999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-124.1409852299999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-119.5833852299999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-119.4026852299999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-117.3695852299999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-119.0962852299999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-118.7290852299999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-119.5129852299999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-123.7010852299999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-124.5460852299999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-124.5460852299999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-134.5122852299999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>351.7477145000002</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>269.3413145000002</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>217.2267145000002</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>162.1916145000002</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>237.0826145000002</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>238.6036145000002</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>219.7429145000002</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>229.5982145000002</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>228.2571145000002</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>231.6673155500002</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>229.2895155500002</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>230.4345155500002</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>214.1387155500002</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>72.9028155500002</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>72.0003155500002</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>68.8591155500002</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>68.3335155500002</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>229.4363155500002</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>229.4363155500002</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>220.0249563900003</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>236.6496563900002</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>246.6932563900002</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>246.6932563900002</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>246.5932563900002</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>246.5932563900002</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>241.4925563900003</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>241.4925563900003</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>184.7138563900003</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>206.6962428600003</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>201.7273428600003</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>220.1103428600003</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-681.6304927099998</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-694.1821927099998</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-687.5090920399996</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-630.2335790199998</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-630.5329790199997</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-557.1035790199998</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-559.6366790199997</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-545.1366790199997</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-511.0366790199997</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-322.7296818399996</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-340.8006818399996</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-340.8006818399996</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-372.0784818399997</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-229.6524818399997</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-231.3498818399997</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-203.2931818399996</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-203.2931818399996</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-203.0936818399996</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-203.0936818399996</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-213.1936818399996</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-221.4948818399996</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-221.4948818399996</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-359.3716818399996</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>61.5807181600004</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-91.17928183999959</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-80.48308183999958</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-167.0325818399996</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-344.9360818399996</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-325.8130818399996</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-325.8130818399996</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-317.4390818399996</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-318.0824818399996</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-296.7331818399996</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-271.9093818399996</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-361.0338818399996</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-361.0338818399996</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-363.5707818399996</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-367.5957818399996</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-367.8457818399996</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-287.4537315999996</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-287.4537315999996</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-271.3257315999996</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-271.3257315999996</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-280.1433315999996</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-128.1523315999997</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-128.1523315999997</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-128.1523315999997</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-137.2973315999997</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>129.0543684000003</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>160.3046672500003</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>167.3489672500003</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>166.3489672500003</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>166.2629672500003</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>166.2712672500003</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>161.8105672500003</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>180.2904672500003</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>161.6027672500003</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>163.2546672500003</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 BCH ohlcv.xlsx
@@ -1718,7 +1718,7 @@
         <v>-188.2532852299998</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-188.4162852299999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-192.0253852299999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-194.1519852299999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-193.7779852299999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-193.7779852299999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-192.4372852299999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-199.1016852299999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-199.1016852299999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-199.1907852299999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-199.1907852299999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-201.9693852299999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-201.9693852299999</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-211.8203852299999</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-211.8203852299999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-212.2270852299999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-102.6117852299999</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-115.8524852299999</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-115.8524852299999</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-120.8524852299999</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-124.1409852299999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-119.5833852299999</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-119.4026852299999</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-117.3695852299999</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-119.0962852299999</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-118.7290852299999</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-119.5129852299999</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-123.7010852299999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-124.5460852299999</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-124.5460852299999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-134.5122852299999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-135.0122852299999</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>439.8245145000002</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>351.7477145000002</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>269.3413145000002</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>217.2267145000002</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>162.1916145000002</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>237.0826145000002</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>251.6036145000002</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>238.6036145000002</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>219.7429145000002</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>229.5982145000002</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>228.2571145000002</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>231.6673155500002</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>229.2895155500002</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>229.4345155500002</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>230.4345155500002</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>230.4345155500002</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>72.9028155500002</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>72.0003155500002</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>68.8591155500002</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>68.3335155500002</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>229.4363155500002</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>229.4363155500002</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>220.0249563900003</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>236.6496563900002</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>246.6932563900002</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>246.6932563900002</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>246.5932563900002</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>246.5932563900002</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>241.4925563900003</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>241.4925563900003</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>184.7138563900003</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>206.6962428600003</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>201.7273428600003</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>220.1103428600003</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-718.3605927099998</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-724.7070927099998</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-687.5090920399996</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-600.8158920399995</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-600.8158920399995</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-633.2485790199997</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-630.2335790199998</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-557.1035790199998</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-559.5189790199997</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-545.1366790199997</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-511.0366790199997</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-322.7296818399996</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-340.8006818399996</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-340.8006818399996</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-372.0784818399997</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-229.6524818399997</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-231.3498818399997</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-203.2931818399996</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-203.2931818399996</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-203.0936818399996</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-203.0936818399996</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-213.1936818399996</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-221.4948818399996</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-221.4948818399996</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-359.3716818399996</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>61.5807181600004</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-91.17928183999959</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-80.48308183999958</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-167.0325818399996</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-344.9360818399996</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-325.8130818399996</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-325.8130818399996</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-317.4390818399996</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-318.0824818399996</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-296.7331818399996</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-271.9093818399996</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-361.0338818399996</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-361.0338818399996</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-363.5707818399996</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-367.5957818399996</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-367.8457818399996</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-287.4537315999996</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-287.4537315999996</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-271.3257315999996</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-271.3257315999996</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-280.1433315999996</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-128.1523315999997</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-128.1523315999997</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-128.1523315999997</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-137.2973315999997</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>129.0543684000003</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>160.3046672500003</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>167.3489672500003</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>166.3489672500003</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>166.2629672500003</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>166.2712672500003</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>161.8105672500003</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>180.2904672500003</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>161.6027672500003</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>163.2546672500003</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
